--- a/muriqui paternity.xlsx
+++ b/muriqui paternity.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/muriqui-paternity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2CD805-4B6B-2043-A9E0-2CBECDE5CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="6520" yWindow="9240" windowWidth="25600" windowHeight="14960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -204,12 +210,6 @@
     <t>PEDID</t>
   </si>
   <si>
-    <t>FATHERID</t>
-  </si>
-  <si>
-    <t>MOTHERID</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
@@ -217,12 +217,18 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>DADID</t>
+  </si>
+  <si>
+    <t>MOMID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -380,6 +386,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -704,16 +718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -724,22 +738,22 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,10 +776,10 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -788,10 +802,10 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -814,10 +828,10 @@
         <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -840,10 +854,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -866,10 +880,10 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -892,10 +906,10 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -918,10 +932,10 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -944,10 +958,10 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -970,10 +984,10 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -996,10 +1010,10 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1022,10 +1036,10 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1048,10 +1062,10 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1074,10 +1088,10 @@
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1100,10 +1114,10 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1126,10 +1140,10 @@
         <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1152,10 +1166,10 @@
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1178,10 +1192,10 @@
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1204,10 +1218,10 @@
         <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1230,10 +1244,10 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1256,10 +1270,10 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1282,10 +1296,10 @@
         <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1308,10 +1322,10 @@
         <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1322,10 +1336,10 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1336,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1350,10 +1364,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1364,10 +1378,10 @@
         <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1378,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1392,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1406,10 +1420,10 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1420,10 +1434,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1434,10 +1448,10 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1448,10 +1462,10 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1462,10 +1476,10 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1476,10 +1490,10 @@
         <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1490,10 +1504,10 @@
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1504,10 +1518,10 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1518,10 +1532,10 @@
         <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1532,10 +1546,10 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1546,10 +1560,10 @@
         <v>53</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1560,10 +1574,10 @@
         <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1574,10 +1588,10 @@
         <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1588,10 +1602,10 @@
         <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1602,10 +1616,10 @@
         <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1616,10 +1630,10 @@
         <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1630,10 +1644,10 @@
         <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1644,10 +1658,10 @@
         <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1658,10 +1672,10 @@
         <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1672,10 +1686,10 @@
         <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1686,10 +1700,10 @@
         <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1700,10 +1714,10 @@
         <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1714,10 +1728,10 @@
         <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1728,10 +1742,10 @@
         <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1742,10 +1756,10 @@
         <v>56</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1756,10 +1770,10 @@
         <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1770,10 +1784,10 @@
         <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1784,7 +1798,7 @@
         <v>58</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
